--- a/data/pca/factorExposure/factorExposure_2009-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01752909815367892</v>
+        <v>-0.01702700792011803</v>
       </c>
       <c r="C2">
-        <v>0.002277569299548541</v>
+        <v>0.001663942936768308</v>
       </c>
       <c r="D2">
-        <v>0.009117564656855969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009746394996893689</v>
+      </c>
+      <c r="E2">
+        <v>-0.01763728170591377</v>
+      </c>
+      <c r="F2">
+        <v>0.007149075980203769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0826640161042274</v>
+        <v>-0.08627790085056924</v>
       </c>
       <c r="C4">
-        <v>0.01943958141214358</v>
+        <v>0.01542124162787915</v>
       </c>
       <c r="D4">
-        <v>0.08645363885144214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08884367731871594</v>
+      </c>
+      <c r="E4">
+        <v>0.05073111240788124</v>
+      </c>
+      <c r="F4">
+        <v>-0.01594191362976704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0007486025291898834</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.509215568024668e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001124139942172044</v>
+      </c>
+      <c r="E5">
+        <v>-0.000303184142526821</v>
+      </c>
+      <c r="F5">
+        <v>0.001868524692700385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.161465037573844</v>
+        <v>-0.1671743040407738</v>
       </c>
       <c r="C6">
-        <v>0.03820099351485628</v>
+        <v>0.035602273444413</v>
       </c>
       <c r="D6">
-        <v>-0.01703074854107103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.008154896730626233</v>
+      </c>
+      <c r="E6">
+        <v>0.06281154808599432</v>
+      </c>
+      <c r="F6">
+        <v>-0.009752311150532168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05438631114928962</v>
+        <v>-0.05925106583960292</v>
       </c>
       <c r="C7">
-        <v>0.001341678633027529</v>
+        <v>-0.001490549886100781</v>
       </c>
       <c r="D7">
-        <v>0.05395935680985411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05779907131475529</v>
+      </c>
+      <c r="E7">
+        <v>0.03235689642165426</v>
+      </c>
+      <c r="F7">
+        <v>-0.05617434911384594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05784940261631306</v>
+        <v>-0.05475503618579586</v>
       </c>
       <c r="C8">
-        <v>-0.009456312276424923</v>
+        <v>-0.01115134805730997</v>
       </c>
       <c r="D8">
-        <v>0.03410880216842958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03532986565082577</v>
+      </c>
+      <c r="E8">
+        <v>-0.0231214876380592</v>
+      </c>
+      <c r="F8">
+        <v>0.02133930107783353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06340719684291624</v>
+        <v>-0.06703223401942196</v>
       </c>
       <c r="C9">
-        <v>0.01486194583006762</v>
+        <v>0.0110147076624148</v>
       </c>
       <c r="D9">
-        <v>0.08974292924969894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09198655371948253</v>
+      </c>
+      <c r="E9">
+        <v>0.06600713611298636</v>
+      </c>
+      <c r="F9">
+        <v>-0.02408474628120786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09759007646005562</v>
+        <v>-0.09372958692016611</v>
       </c>
       <c r="C10">
-        <v>0.02502322351603397</v>
+        <v>0.0258831001015311</v>
       </c>
       <c r="D10">
-        <v>-0.1602891145885696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1510978573717815</v>
+      </c>
+      <c r="E10">
+        <v>-0.0858386721886177</v>
+      </c>
+      <c r="F10">
+        <v>0.01326054388730273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08461381666544696</v>
+        <v>-0.08250993389986409</v>
       </c>
       <c r="C11">
-        <v>0.0167277216760116</v>
+        <v>0.01191201982128537</v>
       </c>
       <c r="D11">
-        <v>0.1370522685078348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1363741800979887</v>
+      </c>
+      <c r="E11">
+        <v>0.03677906353031216</v>
+      </c>
+      <c r="F11">
+        <v>0.006911715194031879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08948276458492686</v>
+        <v>-0.08528029788590308</v>
       </c>
       <c r="C12">
-        <v>0.0145849675897659</v>
+        <v>0.009241599395765505</v>
       </c>
       <c r="D12">
-        <v>0.1441104713941045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.15072604610011</v>
+      </c>
+      <c r="E12">
+        <v>0.03320044840069177</v>
+      </c>
+      <c r="F12">
+        <v>-0.005600305830333261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0418705710435361</v>
+        <v>-0.04272867275174883</v>
       </c>
       <c r="C13">
-        <v>0.007428378941670826</v>
+        <v>0.0038011053851394</v>
       </c>
       <c r="D13">
-        <v>0.05112509207094039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05863067213802761</v>
+      </c>
+      <c r="E13">
+        <v>0.003418364259323859</v>
+      </c>
+      <c r="F13">
+        <v>-0.0194390411361346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01906283005286858</v>
+        <v>-0.02191858152036575</v>
       </c>
       <c r="C14">
-        <v>0.01477534237234553</v>
+        <v>0.01384113365896622</v>
       </c>
       <c r="D14">
-        <v>0.04249507010941465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04272644765949122</v>
+      </c>
+      <c r="E14">
+        <v>0.03123274521416989</v>
+      </c>
+      <c r="F14">
+        <v>-0.003537183991657473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03200724990995629</v>
+        <v>-0.03333533042013377</v>
       </c>
       <c r="C15">
-        <v>0.007987324954453858</v>
+        <v>0.006450436952912297</v>
       </c>
       <c r="D15">
-        <v>0.05571317783102463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05395893402047791</v>
+      </c>
+      <c r="E15">
+        <v>0.02567707269684021</v>
+      </c>
+      <c r="F15">
+        <v>-0.01536626948891513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06553572488733179</v>
+        <v>-0.06525282869731598</v>
       </c>
       <c r="C16">
-        <v>0.005191623381892102</v>
+        <v>0.0006121106903243162</v>
       </c>
       <c r="D16">
-        <v>0.1382237920668933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1443324081772892</v>
+      </c>
+      <c r="E16">
+        <v>0.04535927442550457</v>
+      </c>
+      <c r="F16">
+        <v>0.01248211013011226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002681966815057906</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001138441663481773</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00275941726774001</v>
+      </c>
+      <c r="E17">
+        <v>0.0002308297437878628</v>
+      </c>
+      <c r="F17">
+        <v>0.007466065463637065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03062108933596511</v>
+        <v>-0.04719870526225779</v>
       </c>
       <c r="C18">
-        <v>-6.534491470113418e-05</v>
+        <v>0.000331790367483353</v>
       </c>
       <c r="D18">
-        <v>0.03001783456136118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02784383079638145</v>
+      </c>
+      <c r="E18">
+        <v>-0.01892516283759491</v>
+      </c>
+      <c r="F18">
+        <v>-0.002044888532580208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06180899941251216</v>
+        <v>-0.0612278754902516</v>
       </c>
       <c r="C20">
-        <v>0.005028566232337198</v>
+        <v>0.00222008430594759</v>
       </c>
       <c r="D20">
-        <v>0.0950061600057818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09519118034908591</v>
+      </c>
+      <c r="E20">
+        <v>0.06103696879440681</v>
+      </c>
+      <c r="F20">
+        <v>0.005565872931727435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04031941749021002</v>
+        <v>-0.04263062208301634</v>
       </c>
       <c r="C21">
-        <v>0.01037515362600646</v>
+        <v>0.007796448703859375</v>
       </c>
       <c r="D21">
-        <v>0.05008354487368967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04854187776976384</v>
+      </c>
+      <c r="E21">
+        <v>-0.01532150741447521</v>
+      </c>
+      <c r="F21">
+        <v>-0.008004805174107024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04580677073802299</v>
+        <v>-0.04478441013356758</v>
       </c>
       <c r="C22">
-        <v>0.004784869483572384</v>
+        <v>0.002707065473644245</v>
       </c>
       <c r="D22">
-        <v>0.009618349919095302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0182191606662585</v>
+      </c>
+      <c r="E22">
+        <v>-0.03869961283953233</v>
+      </c>
+      <c r="F22">
+        <v>0.125920788053525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04581576750251166</v>
+        <v>-0.044792051728256</v>
       </c>
       <c r="C23">
-        <v>0.004787385099156985</v>
+        <v>0.002709359551980503</v>
       </c>
       <c r="D23">
-        <v>0.009610517485611951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01821316175424399</v>
+      </c>
+      <c r="E23">
+        <v>-0.03872143022344959</v>
+      </c>
+      <c r="F23">
+        <v>0.1259610931909518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07256697124520209</v>
+        <v>-0.07121201461500984</v>
       </c>
       <c r="C24">
-        <v>0.006051370617204592</v>
+        <v>0.001697552806733273</v>
       </c>
       <c r="D24">
-        <v>0.1372455751017096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1356340567050788</v>
+      </c>
+      <c r="E24">
+        <v>0.03979899287877182</v>
+      </c>
+      <c r="F24">
+        <v>-0.005018475680451006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07880110304925063</v>
+        <v>-0.07675619268106328</v>
       </c>
       <c r="C25">
-        <v>0.008998968704040863</v>
+        <v>0.004853847872369777</v>
       </c>
       <c r="D25">
-        <v>0.1277537788762887</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.125955397598792</v>
+      </c>
+      <c r="E25">
+        <v>0.02530094371542401</v>
+      </c>
+      <c r="F25">
+        <v>-0.02118918321141176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0568729266601076</v>
+        <v>-0.06190000185359542</v>
       </c>
       <c r="C26">
-        <v>0.01896139621467468</v>
+        <v>0.01629147903486287</v>
       </c>
       <c r="D26">
-        <v>0.06662279222510002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.067108025335526</v>
+      </c>
+      <c r="E26">
+        <v>0.004562533422577534</v>
+      </c>
+      <c r="F26">
+        <v>0.007810261240514573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1564071679592101</v>
+        <v>-0.1604738289466707</v>
       </c>
       <c r="C28">
-        <v>0.03045773398375014</v>
+        <v>0.03287777361509907</v>
       </c>
       <c r="D28">
-        <v>-0.2475140328150776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2447503256277079</v>
+      </c>
+      <c r="E28">
+        <v>-0.01749570030863161</v>
+      </c>
+      <c r="F28">
+        <v>-0.04531577682600878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02540364024369917</v>
+        <v>-0.02757226655632119</v>
       </c>
       <c r="C29">
-        <v>0.009734106385284122</v>
+        <v>0.009220072428923996</v>
       </c>
       <c r="D29">
-        <v>0.04087447696181873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03967600257498512</v>
+      </c>
+      <c r="E29">
+        <v>-0.002333672708721425</v>
+      </c>
+      <c r="F29">
+        <v>0.0207149302332944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04764031687673212</v>
+        <v>-0.0475502492201809</v>
       </c>
       <c r="C30">
-        <v>0.00502805120499338</v>
+        <v>0.001715098595933759</v>
       </c>
       <c r="D30">
-        <v>0.07468322806001602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07887224620647164</v>
+      </c>
+      <c r="E30">
+        <v>0.07990643559237257</v>
+      </c>
+      <c r="F30">
+        <v>-0.07042656831931543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05118032666909785</v>
+        <v>-0.05187310262893403</v>
       </c>
       <c r="C31">
-        <v>0.01932229798630521</v>
+        <v>0.0171077421779663</v>
       </c>
       <c r="D31">
-        <v>0.03349354912253725</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03641274685001272</v>
+      </c>
+      <c r="E31">
+        <v>0.01296732025608224</v>
+      </c>
+      <c r="F31">
+        <v>0.03165675336336855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0432340600290736</v>
+        <v>-0.04887376872323895</v>
       </c>
       <c r="C32">
-        <v>0.001255545112586421</v>
+        <v>-0.001401344460199422</v>
       </c>
       <c r="D32">
-        <v>0.0377006231617829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0396314767004731</v>
+      </c>
+      <c r="E32">
+        <v>0.01490272242348532</v>
+      </c>
+      <c r="F32">
+        <v>0.01949890451925961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08294557082815406</v>
+        <v>-0.08521210812381171</v>
       </c>
       <c r="C33">
-        <v>0.01287707112591121</v>
+        <v>0.007899874776872661</v>
       </c>
       <c r="D33">
-        <v>0.107633038847113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1152204943179845</v>
+      </c>
+      <c r="E33">
+        <v>0.04841162374171219</v>
+      </c>
+      <c r="F33">
+        <v>0.01054185495635481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06047881924538924</v>
+        <v>-0.0609335173077396</v>
       </c>
       <c r="C34">
-        <v>0.01448917267802031</v>
+        <v>0.009919640663046753</v>
       </c>
       <c r="D34">
-        <v>0.1131762440229648</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1207651772947639</v>
+      </c>
+      <c r="E34">
+        <v>0.03592091906197021</v>
+      </c>
+      <c r="F34">
+        <v>-0.02712107976237232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02648979998239056</v>
+        <v>-0.02790875440976689</v>
       </c>
       <c r="C35">
-        <v>0.005054244444354559</v>
+        <v>0.004417922195730395</v>
       </c>
       <c r="D35">
-        <v>0.01248935428901315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01520751647003061</v>
+      </c>
+      <c r="E35">
+        <v>0.01202452861372127</v>
+      </c>
+      <c r="F35">
+        <v>0.01717705517283263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02305070102053032</v>
+        <v>-0.02744680532875001</v>
       </c>
       <c r="C36">
-        <v>0.008715317330232534</v>
+        <v>0.007807520732730279</v>
       </c>
       <c r="D36">
-        <v>0.04654475247623335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04994597030235873</v>
+      </c>
+      <c r="E36">
+        <v>0.03929259618038041</v>
+      </c>
+      <c r="F36">
+        <v>0.01111550673092669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003382177827133389</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008517344287783304</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003664023071684673</v>
+      </c>
+      <c r="E37">
+        <v>-0.001509198857612522</v>
+      </c>
+      <c r="F37">
+        <v>6.366482298124924e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09537160755993614</v>
+        <v>-0.08793128570954259</v>
       </c>
       <c r="C39">
-        <v>0.02025206004753426</v>
+        <v>0.01472583708370048</v>
       </c>
       <c r="D39">
-        <v>0.1708560111343809</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.163692166166057</v>
+      </c>
+      <c r="E39">
+        <v>0.02920277302492096</v>
+      </c>
+      <c r="F39">
+        <v>0.01086806896231094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04376060697150776</v>
+        <v>-0.04926355361608224</v>
       </c>
       <c r="C40">
-        <v>0.01209400868175112</v>
+        <v>0.01057626099491574</v>
       </c>
       <c r="D40">
-        <v>0.04323532605553609</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04683652971163881</v>
+      </c>
+      <c r="E40">
+        <v>-0.02083482325791718</v>
+      </c>
+      <c r="F40">
+        <v>-0.002954655146776028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02713467671805656</v>
+        <v>-0.02918602495001744</v>
       </c>
       <c r="C41">
-        <v>0.008631027496121869</v>
+        <v>0.008049792909486727</v>
       </c>
       <c r="D41">
-        <v>0.0199297922633341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02042918438988793</v>
+      </c>
+      <c r="E41">
+        <v>-0.008325288710371959</v>
+      </c>
+      <c r="F41">
+        <v>0.004216639586283663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04076671634798344</v>
+        <v>-0.03990767827177648</v>
       </c>
       <c r="C43">
-        <v>0.009179971055656298</v>
+        <v>0.008205202732892594</v>
       </c>
       <c r="D43">
-        <v>0.03344587354634793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03128034267522992</v>
+      </c>
+      <c r="E43">
+        <v>-0.005831847075952383</v>
+      </c>
+      <c r="F43">
+        <v>0.02446864533705605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05802092891225617</v>
+        <v>-0.06655540983780218</v>
       </c>
       <c r="C44">
-        <v>0.02152374933506281</v>
+        <v>0.01848841514682586</v>
       </c>
       <c r="D44">
-        <v>0.07846062117672671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08692716929836365</v>
+      </c>
+      <c r="E44">
+        <v>0.2203931830267351</v>
+      </c>
+      <c r="F44">
+        <v>-0.07881071535941148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000209610158801734</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.633250938316067e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-4.336366344536542e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004307692833937223</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002638040453190445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02377868611061857</v>
+        <v>-0.02598937647712527</v>
       </c>
       <c r="C46">
-        <v>0.004954304001288857</v>
+        <v>0.004198952932991335</v>
       </c>
       <c r="D46">
-        <v>0.02726478585550656</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02663404481037235</v>
+      </c>
+      <c r="E46">
+        <v>-0.001025885200314505</v>
+      </c>
+      <c r="F46">
+        <v>0.0310574837806385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05451479464832736</v>
+        <v>-0.05334560840716422</v>
       </c>
       <c r="C47">
-        <v>0.007742180698930974</v>
+        <v>0.005821311570210424</v>
       </c>
       <c r="D47">
-        <v>0.02131453212605985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02204635425023931</v>
+      </c>
+      <c r="E47">
+        <v>-0.01335936790831866</v>
+      </c>
+      <c r="F47">
+        <v>0.05395632931427016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04820523666049548</v>
+        <v>-0.05222179480674427</v>
       </c>
       <c r="C48">
-        <v>0.006225708200351046</v>
+        <v>0.003945129936501647</v>
       </c>
       <c r="D48">
-        <v>0.06573536603043276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06409428922532924</v>
+      </c>
+      <c r="E48">
+        <v>0.006519293603408033</v>
+      </c>
+      <c r="F48">
+        <v>-0.02201096299413906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1956764020681517</v>
+        <v>-0.1977598590140726</v>
       </c>
       <c r="C49">
-        <v>0.02982156977513824</v>
+        <v>0.02526608766917003</v>
       </c>
       <c r="D49">
-        <v>-0.005299195244351126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001062233530272017</v>
+      </c>
+      <c r="E49">
+        <v>0.04334427605129924</v>
+      </c>
+      <c r="F49">
+        <v>-0.04189045978375679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04924216352791205</v>
+        <v>-0.05223892942332572</v>
       </c>
       <c r="C50">
-        <v>0.01471314336196681</v>
+        <v>0.01308380069025747</v>
       </c>
       <c r="D50">
-        <v>0.03330015168613736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03502400168751239</v>
+      </c>
+      <c r="E50">
+        <v>0.02384274026133108</v>
+      </c>
+      <c r="F50">
+        <v>0.0182920642737212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1471215600433687</v>
+        <v>-0.1411362951847337</v>
       </c>
       <c r="C52">
-        <v>0.02532868999949043</v>
+        <v>0.02117048595505908</v>
       </c>
       <c r="D52">
-        <v>0.04291670504554862</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04366910433933086</v>
+      </c>
+      <c r="E52">
+        <v>0.0569634462880967</v>
+      </c>
+      <c r="F52">
+        <v>0.01864760603288338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1771720168168831</v>
+        <v>-0.1689905968413983</v>
       </c>
       <c r="C53">
-        <v>0.03047233918441109</v>
+        <v>0.02678208974927602</v>
       </c>
       <c r="D53">
-        <v>0.015908874926282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0162221869064856</v>
+      </c>
+      <c r="E53">
+        <v>0.1116561020119677</v>
+      </c>
+      <c r="F53">
+        <v>0.006971571593231908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01317967522100248</v>
+        <v>-0.01662102968906554</v>
       </c>
       <c r="C54">
-        <v>0.01154002042638697</v>
+        <v>0.01095962654476857</v>
       </c>
       <c r="D54">
-        <v>0.03489969270867876</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03309354164446989</v>
+      </c>
+      <c r="E54">
+        <v>0.008170746653087766</v>
+      </c>
+      <c r="F54">
+        <v>0.01432065286282806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.120023143725163</v>
+        <v>-0.1174041153819994</v>
       </c>
       <c r="C55">
-        <v>0.02574842137001007</v>
+        <v>0.02288705445004113</v>
       </c>
       <c r="D55">
-        <v>0.01422531639398539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02025244235593372</v>
+      </c>
+      <c r="E55">
+        <v>0.06837756629783756</v>
+      </c>
+      <c r="F55">
+        <v>0.04028231752898329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806110379954218</v>
+        <v>-0.1746440979341642</v>
       </c>
       <c r="C56">
-        <v>0.02797423861471623</v>
+        <v>0.02466351903695962</v>
       </c>
       <c r="D56">
-        <v>0.004189798342364141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.005266219427657403</v>
+      </c>
+      <c r="E56">
+        <v>0.07455770157386638</v>
+      </c>
+      <c r="F56">
+        <v>0.03223451264941984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0465204932342265</v>
+        <v>-0.04550245850720726</v>
       </c>
       <c r="C58">
-        <v>0.004641643734283541</v>
+        <v>0.0005474660356786879</v>
       </c>
       <c r="D58">
-        <v>0.09268990311774562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.09852054175165109</v>
+      </c>
+      <c r="E58">
+        <v>-0.01634745668632778</v>
+      </c>
+      <c r="F58">
+        <v>0.03695071148936097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1757141905290694</v>
+        <v>-0.1797647598064451</v>
       </c>
       <c r="C59">
-        <v>0.0301912539087983</v>
+        <v>0.03197430678773678</v>
       </c>
       <c r="D59">
-        <v>-0.2115630270842204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2101385251442509</v>
+      </c>
+      <c r="E59">
+        <v>-0.07692717956990794</v>
+      </c>
+      <c r="F59">
+        <v>0.01030688310337069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.222705323423804</v>
+        <v>-0.2178030843907896</v>
       </c>
       <c r="C60">
-        <v>0.00919041477126752</v>
+        <v>0.00419968588393682</v>
       </c>
       <c r="D60">
-        <v>0.01934715045249857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02049564542455769</v>
+      </c>
+      <c r="E60">
+        <v>-0.01611284855422237</v>
+      </c>
+      <c r="F60">
+        <v>0.001896377789762592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07070003645454136</v>
+        <v>-0.06727651800284697</v>
       </c>
       <c r="C61">
-        <v>0.01489705247937536</v>
+        <v>0.0103607012772718</v>
       </c>
       <c r="D61">
-        <v>0.1259313377455525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1247117246975706</v>
+      </c>
+      <c r="E61">
+        <v>0.01650315149219069</v>
+      </c>
+      <c r="F61">
+        <v>0.01567740283607147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.170993988178214</v>
+        <v>-0.1666572720579131</v>
       </c>
       <c r="C62">
-        <v>0.03047487452259654</v>
+        <v>0.02689013355960044</v>
       </c>
       <c r="D62">
-        <v>0.009849424926714237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01286066478354837</v>
+      </c>
+      <c r="E62">
+        <v>0.06600476757614084</v>
+      </c>
+      <c r="F62">
+        <v>0.04022062814148095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04056627451705667</v>
+        <v>-0.04628380454909658</v>
       </c>
       <c r="C63">
-        <v>0.005450574325875846</v>
+        <v>0.003175547582326821</v>
       </c>
       <c r="D63">
-        <v>0.07104019680016295</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07555478042539016</v>
+      </c>
+      <c r="E63">
+        <v>0.01319298665029073</v>
+      </c>
+      <c r="F63">
+        <v>0.02015211417344283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1143251585401146</v>
+        <v>-0.1115438313753728</v>
       </c>
       <c r="C64">
-        <v>0.02014784647032329</v>
+        <v>0.01606402211221932</v>
       </c>
       <c r="D64">
-        <v>0.05676140310826873</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05833066335448377</v>
+      </c>
+      <c r="E64">
+        <v>0.03471183840058366</v>
+      </c>
+      <c r="F64">
+        <v>-0.001593715138871529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1502729581522869</v>
+        <v>-0.1561634185257224</v>
       </c>
       <c r="C65">
-        <v>0.04398610949138571</v>
+        <v>0.04209345945720927</v>
       </c>
       <c r="D65">
-        <v>-0.04751066015852871</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.035932637900985</v>
+      </c>
+      <c r="E65">
+        <v>0.07113976376323909</v>
+      </c>
+      <c r="F65">
+        <v>0.004615472779639881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1164633689515803</v>
+        <v>-0.1069369979788845</v>
       </c>
       <c r="C66">
-        <v>0.0190331819362023</v>
+        <v>0.01292362375656342</v>
       </c>
       <c r="D66">
-        <v>0.1509736286800868</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1486470548728993</v>
+      </c>
+      <c r="E66">
+        <v>0.02917209763839592</v>
+      </c>
+      <c r="F66">
+        <v>0.009573780450868647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05911471108792662</v>
+        <v>-0.05194513665643194</v>
       </c>
       <c r="C67">
-        <v>0.006393751581319255</v>
+        <v>0.003974054629264767</v>
       </c>
       <c r="D67">
-        <v>0.06097939156121933</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0610475727646615</v>
+      </c>
+      <c r="E67">
+        <v>-0.05076914877641735</v>
+      </c>
+      <c r="F67">
+        <v>0.07500603547799274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1259084634191678</v>
+        <v>-0.1313345314491322</v>
       </c>
       <c r="C68">
-        <v>0.03831345499224741</v>
+        <v>0.04209600356067804</v>
       </c>
       <c r="D68">
-        <v>-0.2571760385390802</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2545449819157764</v>
+      </c>
+      <c r="E68">
+        <v>-0.03126324981909031</v>
+      </c>
+      <c r="F68">
+        <v>-0.07514453360520132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03908584856110758</v>
+        <v>-0.03868007283187364</v>
       </c>
       <c r="C69">
-        <v>0.003524513546659328</v>
+        <v>0.002435071725008345</v>
       </c>
       <c r="D69">
-        <v>0.0129464990677548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01281872393245141</v>
+      </c>
+      <c r="E69">
+        <v>0.01501405876409187</v>
+      </c>
+      <c r="F69">
+        <v>0.05150417279557919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07228486623053894</v>
+        <v>-0.07319428542320594</v>
       </c>
       <c r="C70">
-        <v>-0.02139318965724663</v>
+        <v>-0.02317007847332462</v>
       </c>
       <c r="D70">
-        <v>0.05186443617760668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.047944172748714</v>
+      </c>
+      <c r="E70">
+        <v>-0.3282393274173723</v>
+      </c>
+      <c r="F70">
+        <v>0.1736117297143174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1465393969520595</v>
+        <v>-0.152767715488263</v>
       </c>
       <c r="C71">
-        <v>0.0443684402523123</v>
+        <v>0.04781714155583338</v>
       </c>
       <c r="D71">
-        <v>-0.2699234386316648</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2632160997248345</v>
+      </c>
+      <c r="E71">
+        <v>-0.03809473744309963</v>
+      </c>
+      <c r="F71">
+        <v>-0.08500376575315564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1391091285124861</v>
+        <v>-0.1455301493491263</v>
       </c>
       <c r="C72">
-        <v>0.03430730698318833</v>
+        <v>0.03259234876188714</v>
       </c>
       <c r="D72">
-        <v>0.01817995340940162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01267757134726956</v>
+      </c>
+      <c r="E72">
+        <v>0.0645325034947087</v>
+      </c>
+      <c r="F72">
+        <v>0.02931491273407921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.194377484696138</v>
+        <v>-0.1992550819985106</v>
       </c>
       <c r="C73">
-        <v>0.02259789437584467</v>
+        <v>0.01697855180477319</v>
       </c>
       <c r="D73">
-        <v>0.01428149177797369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02173289243468611</v>
+      </c>
+      <c r="E73">
+        <v>0.05631381803219703</v>
+      </c>
+      <c r="F73">
+        <v>0.05102284829800648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08882583223121675</v>
+        <v>-0.08863398196990621</v>
       </c>
       <c r="C74">
-        <v>0.01722062225451908</v>
+        <v>0.01487122622483149</v>
       </c>
       <c r="D74">
-        <v>0.0212195875875674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0250701298977239</v>
+      </c>
+      <c r="E74">
+        <v>0.07898549963772956</v>
+      </c>
+      <c r="F74">
+        <v>0.01512435671483853</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1281463994644346</v>
+        <v>-0.1206824187806605</v>
       </c>
       <c r="C75">
-        <v>0.03544830446624373</v>
+        <v>0.03164581989150252</v>
       </c>
       <c r="D75">
-        <v>0.03590587528771694</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03790313130803139</v>
+      </c>
+      <c r="E75">
+        <v>0.06231579687811924</v>
+      </c>
+      <c r="F75">
+        <v>0.06178981280282235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07528982427917606</v>
+        <v>-0.08989048882518072</v>
       </c>
       <c r="C77">
-        <v>0.01426362894744661</v>
+        <v>0.01095034497661063</v>
       </c>
       <c r="D77">
-        <v>0.1224008020933977</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1216361379038665</v>
+      </c>
+      <c r="E77">
+        <v>0.05128284459252546</v>
+      </c>
+      <c r="F77">
+        <v>-0.01985618402682145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09721452837936423</v>
+        <v>-0.09940208875833979</v>
       </c>
       <c r="C78">
-        <v>0.04382341111351328</v>
+        <v>0.0405721255052561</v>
       </c>
       <c r="D78">
-        <v>0.149623471754603</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1396019301523518</v>
+      </c>
+      <c r="E78">
+        <v>0.04912191431586514</v>
+      </c>
+      <c r="F78">
+        <v>-0.02915768819461881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1688482777909278</v>
+        <v>-0.1642951817717958</v>
       </c>
       <c r="C79">
-        <v>0.03366296683753365</v>
+        <v>0.02963385029044931</v>
       </c>
       <c r="D79">
-        <v>0.02482247867755168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0268094136752363</v>
+      </c>
+      <c r="E79">
+        <v>0.03825061981265818</v>
+      </c>
+      <c r="F79">
+        <v>0.03838371684610969</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07820339763828786</v>
+        <v>-0.07649883486409029</v>
       </c>
       <c r="C80">
-        <v>0.004085302762125669</v>
+        <v>0.001570212285395153</v>
       </c>
       <c r="D80">
-        <v>0.05184177273665935</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05383504417891098</v>
+      </c>
+      <c r="E80">
+        <v>-0.01630335547091831</v>
+      </c>
+      <c r="F80">
+        <v>0.04750025349794169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1153411761590355</v>
+        <v>-0.1095694507410383</v>
       </c>
       <c r="C81">
-        <v>0.03686718404491528</v>
+        <v>0.03461385423302996</v>
       </c>
       <c r="D81">
-        <v>0.008579650233448774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01328773993566031</v>
+      </c>
+      <c r="E81">
+        <v>0.05030136193354822</v>
+      </c>
+      <c r="F81">
+        <v>0.06393931315797524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1612895679916493</v>
+        <v>-0.1594739277665566</v>
       </c>
       <c r="C82">
-        <v>0.03336644123533403</v>
+        <v>0.02999348763235103</v>
       </c>
       <c r="D82">
-        <v>0.004699671584825422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.005028046057447342</v>
+      </c>
+      <c r="E82">
+        <v>0.1038113482184203</v>
+      </c>
+      <c r="F82">
+        <v>0.004145294234826524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05634807115875066</v>
+        <v>-0.05194162104531718</v>
       </c>
       <c r="C83">
-        <v>0.006381226085493362</v>
+        <v>0.004065786213856382</v>
       </c>
       <c r="D83">
-        <v>0.04926390150404379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04662071514642337</v>
+      </c>
+      <c r="E83">
+        <v>-0.02463552017250936</v>
+      </c>
+      <c r="F83">
+        <v>0.00743030027246775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05319718754726771</v>
+        <v>-0.05017197283791035</v>
       </c>
       <c r="C84">
-        <v>0.01310346274784942</v>
+        <v>0.01056861900400935</v>
       </c>
       <c r="D84">
-        <v>0.07865815399534866</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07737160718474391</v>
+      </c>
+      <c r="E84">
+        <v>0.009906234196472517</v>
+      </c>
+      <c r="F84">
+        <v>0.004316666867639357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1393902796395226</v>
+        <v>-0.1339314675300114</v>
       </c>
       <c r="C85">
-        <v>0.03670558649546009</v>
+        <v>0.03344271150108613</v>
       </c>
       <c r="D85">
-        <v>0.01684375714979382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01857744063140003</v>
+      </c>
+      <c r="E85">
+        <v>0.08048296124340361</v>
+      </c>
+      <c r="F85">
+        <v>0.01689862223165016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08344380834695517</v>
+        <v>-0.08256383356172303</v>
       </c>
       <c r="C86">
-        <v>-0.004267701112754897</v>
+        <v>-0.006416404496633708</v>
       </c>
       <c r="D86">
-        <v>0.04435360244988281</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07152258092875689</v>
+      </c>
+      <c r="E86">
+        <v>-0.5533435113300099</v>
+      </c>
+      <c r="F86">
+        <v>0.594701866684017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08624473523594454</v>
+        <v>-0.08694211813877162</v>
       </c>
       <c r="C87">
-        <v>0.02727433489123353</v>
+        <v>0.02296609948033653</v>
       </c>
       <c r="D87">
-        <v>0.08308328214363213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08561332832445136</v>
+      </c>
+      <c r="E87">
+        <v>0.009330498794972697</v>
+      </c>
+      <c r="F87">
+        <v>-0.1090775244972476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06219205922923096</v>
+        <v>-0.06107078463379886</v>
       </c>
       <c r="C88">
-        <v>0.006936820112116705</v>
+        <v>0.004478776161572194</v>
       </c>
       <c r="D88">
-        <v>0.06851860210841902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06458943783492227</v>
+      </c>
+      <c r="E88">
+        <v>0.01741632349833182</v>
+      </c>
+      <c r="F88">
+        <v>0.01027509637999564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1341145940114215</v>
+        <v>-0.1385873182487155</v>
       </c>
       <c r="C89">
-        <v>0.01820464724596155</v>
+        <v>0.02193735734499778</v>
       </c>
       <c r="D89">
-        <v>-0.2313799635880487</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2356242279244646</v>
+      </c>
+      <c r="E89">
+        <v>-0.04337330079060289</v>
+      </c>
+      <c r="F89">
+        <v>-0.0819738105693204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1581364914372885</v>
+        <v>-0.1680531660552153</v>
       </c>
       <c r="C90">
-        <v>0.04090592269581975</v>
+        <v>0.0450722490629818</v>
       </c>
       <c r="D90">
-        <v>-0.256878125675747</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2587896744684863</v>
+      </c>
+      <c r="E90">
+        <v>-0.06692268146888346</v>
+      </c>
+      <c r="F90">
+        <v>-0.1165522589950857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1266280888938685</v>
+        <v>-0.1215697342593293</v>
       </c>
       <c r="C91">
-        <v>0.02770147309440387</v>
+        <v>0.02555705282500026</v>
       </c>
       <c r="D91">
-        <v>-0.01040871545145256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.007739382532527262</v>
+      </c>
+      <c r="E91">
+        <v>0.03860607954096774</v>
+      </c>
+      <c r="F91">
+        <v>0.09342886608439607</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1567012661064049</v>
+        <v>-0.1596627398250661</v>
       </c>
       <c r="C92">
-        <v>0.03151476669700742</v>
+        <v>0.03534150790362175</v>
       </c>
       <c r="D92">
-        <v>-0.2882121382163507</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2917808846929013</v>
+      </c>
+      <c r="E92">
+        <v>-0.05112063622479454</v>
+      </c>
+      <c r="F92">
+        <v>-0.07564212108911203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1621616647365458</v>
+        <v>-0.1703996369075698</v>
       </c>
       <c r="C93">
-        <v>0.03677588501104075</v>
+        <v>0.03970011887537438</v>
       </c>
       <c r="D93">
-        <v>-0.2470240531362338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2502733987705292</v>
+      </c>
+      <c r="E93">
+        <v>-0.02315696516390765</v>
+      </c>
+      <c r="F93">
+        <v>-0.05715281151628519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1263292916302945</v>
+        <v>-0.1193227799883594</v>
       </c>
       <c r="C94">
-        <v>0.03097617831440648</v>
+        <v>0.02688386271082922</v>
       </c>
       <c r="D94">
-        <v>0.04968270537942495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05037223576726854</v>
+      </c>
+      <c r="E94">
+        <v>0.05921483340979837</v>
+      </c>
+      <c r="F94">
+        <v>0.06116130704143744</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1255613169450832</v>
+        <v>-0.1279142530658947</v>
       </c>
       <c r="C95">
-        <v>0.01319164714405664</v>
+        <v>0.007746174012662094</v>
       </c>
       <c r="D95">
-        <v>0.1105638562556061</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1181647536632847</v>
+      </c>
+      <c r="E95">
+        <v>0.01527293634901019</v>
+      </c>
+      <c r="F95">
+        <v>0.03345208343557147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1692210385619776</v>
+        <v>-0.1505676021783331</v>
       </c>
       <c r="C96">
-        <v>-0.9798870093468388</v>
+        <v>-0.9820429965763778</v>
       </c>
       <c r="D96">
-        <v>-0.03160139511198778</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05210635035128484</v>
+      </c>
+      <c r="E96">
+        <v>0.06475311515674972</v>
+      </c>
+      <c r="F96">
+        <v>0.01032958022352507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1941047172878548</v>
+        <v>-0.195508555852408</v>
       </c>
       <c r="C97">
-        <v>0.00640195727662912</v>
+        <v>0.001386160009447651</v>
       </c>
       <c r="D97">
-        <v>-0.01998610277413027</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0172075417867525</v>
+      </c>
+      <c r="E97">
+        <v>-0.1334865047230646</v>
+      </c>
+      <c r="F97">
+        <v>0.107032421943783</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1908209008155283</v>
+        <v>-0.1983434445528005</v>
       </c>
       <c r="C98">
-        <v>0.01816373634126344</v>
+        <v>0.01286725918004474</v>
       </c>
       <c r="D98">
-        <v>-0.001769726668418085</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.003580757914815877</v>
+      </c>
+      <c r="E98">
+        <v>-0.1347209041714834</v>
+      </c>
+      <c r="F98">
+        <v>-0.05447737985472605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05665819469718803</v>
+        <v>-0.05631918144939992</v>
       </c>
       <c r="C99">
-        <v>-0.0004674766547264084</v>
+        <v>-0.002594597332106144</v>
       </c>
       <c r="D99">
-        <v>0.05308563496294503</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05460638111922142</v>
+      </c>
+      <c r="E99">
+        <v>0.002277630685748836</v>
+      </c>
+      <c r="F99">
+        <v>0.004247507028679658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1188079888681736</v>
+        <v>-0.1124325002995315</v>
       </c>
       <c r="C100">
-        <v>-0.03389808594029969</v>
+        <v>-0.04040744165527713</v>
       </c>
       <c r="D100">
-        <v>0.3015036727275806</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2858098652926671</v>
+      </c>
+      <c r="E100">
+        <v>-0.5792439603170521</v>
+      </c>
+      <c r="F100">
+        <v>-0.662953416152013</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02542165431714236</v>
+        <v>-0.02764049035952595</v>
       </c>
       <c r="C101">
-        <v>0.009751098326428009</v>
+        <v>0.00925567708015612</v>
       </c>
       <c r="D101">
-        <v>0.04035092040329344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03918513457701712</v>
+      </c>
+      <c r="E101">
+        <v>-0.004607938143088189</v>
+      </c>
+      <c r="F101">
+        <v>0.02206487806884573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
